--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="19"/>
@@ -3348,7 +3348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -4026,7 +4026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4058,9 +4058,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4092,6 +4093,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4267,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4329,7 +4331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4545,7 +4547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4652,7 +4654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4864,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4983,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -5409,7 +5411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5635,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -5916,7 +5918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6176,7 +6178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6237,7 +6239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6334,7 +6336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6404,7 +6406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
@@ -7199,7 +7201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -7500,7 +7502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7561,7 +7563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7617,7 +7619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7742,7 +7744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7768,7 +7770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7794,7 +7796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -8830,7 +8832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8845,7 +8847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8871,7 +8873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8927,7 +8929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
